--- a/etc/Calculation.xlsx
+++ b/etc/Calculation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\plinemods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\plinemods\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B55C568-37AE-4F7A-AF9B-618CD30E7F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274DAC5A-65B8-48F0-9ABC-7B16CD691EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="2250" windowWidth="17160" windowHeight="18000" xr2:uid="{91FD7040-9C7F-424A-B947-BA6EE57B20EB}"/>
+    <workbookView xWindow="9615" yWindow="1515" windowWidth="23895" windowHeight="17400" xr2:uid="{91FD7040-9C7F-424A-B947-BA6EE57B20EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation" sheetId="1" r:id="rId1"/>
@@ -72,22 +72,22 @@
     <t>Machine produces how many products per run:</t>
   </si>
   <si>
-    <t>Compared to importing, we can get the product for:</t>
-  </si>
-  <si>
     <t xml:space="preserve">We save per product: </t>
   </si>
   <si>
     <t>We save per product in $:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Steel $82, Rubber $131, Steel Sheet $105, Cooper $817, Magnet $411</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Aircon Unit $987, Sensor $144, Chip $201</t>
   </si>
   <si>
-    <t>See https://github.com/texhex/plinemods</t>
+    <t xml:space="preserve"> - Steel $82, Rubber $131, Steel Sheet $105, Cooper $817, Magnet $411, Glass $78</t>
+  </si>
+  <si>
+    <t>Compared to importing, we get the product for:</t>
+  </si>
+  <si>
+    <t>https://github.com/texhex/plinemods</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
     <numFmt numFmtId="167" formatCode="0\ &quot;pieces&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00\ &quot;%&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,10 +148,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -160,8 +169,10 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,7 +488,7 @@
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -485,7 +496,7 @@
     <col min="1" max="1" width="51.85546875" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" customWidth="1"/>
+    <col min="4" max="4" width="109.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -493,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="10">
-        <v>9100</v>
+        <v>26300</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -501,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -509,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -517,8 +528,8 @@
         <v>6</v>
       </c>
       <c r="B5" s="13">
-        <f>144+201+78</f>
-        <v>423</v>
+        <f>(1*1503) + (4*201) + (4*78) + (4*144)</f>
+        <v>3195</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -529,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13">
-        <v>225</v>
+        <v>3430</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,7 +560,7 @@
       </c>
       <c r="B9" s="6">
         <f>120000/B2</f>
-        <v>13.186813186813186</v>
+        <v>4.5627376425855513</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>1</v>
@@ -561,7 +572,7 @@
       </c>
       <c r="B10" s="8">
         <f>B4*B9</f>
-        <v>52.747252747252745</v>
+        <v>9.1254752851711025</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -571,7 +582,7 @@
       </c>
       <c r="B11" s="7">
         <f>B5*B9</f>
-        <v>5578.0219780219777</v>
+        <v>14577.946768060836</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -580,7 +591,7 @@
       </c>
       <c r="B12" s="7">
         <f>B3*75</f>
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -592,7 +603,7 @@
       </c>
       <c r="B15" s="7">
         <f>(B11+B12)/B10</f>
-        <v>107.171875</v>
+        <v>1630.375</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -601,7 +612,7 @@
       </c>
       <c r="B16" s="7">
         <f>B6</f>
-        <v>225</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -609,38 +620,41 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9">
         <f>(B15/B16)*100</f>
-        <v>47.631944444444443</v>
+        <v>47.532798833819243</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="9">
         <f>100-B18</f>
-        <v>52.368055555555557</v>
+        <v>52.467201166180757</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3">
         <f>B16*(B19/100)</f>
-        <v>117.82812500000001</v>
+        <v>1799.6249999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{63D5D877-75E7-47DC-91C5-5CF9DF31BB4A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>